--- a/assets/excel/PEBRA_Data_template.xlsx
+++ b/assets/excel/PEBRA_Data_template.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Dev/repos/PEBRApp/assets/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\FlutterApps\PEBRApp\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01D6BC0-274D-3948-805E-AF42BD4F7986}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E5DF11-8BA7-42D3-ACB7-263C6D2CFB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{46424636-BBCA-2C45-853D-B40C826B6618}"/>
+    <workbookView xWindow="2388" yWindow="2532" windowWidth="17280" windowHeight="7620" firstSheet="2" activeTab="2" xr2:uid="{4FD093C7-90F8-4493-AAE4-96A674E1E67B}"/>
   </bookViews>
   <sheets>
-    <sheet name="User Data" sheetId="5" r:id="rId1"/>
-    <sheet name="Participant" sheetId="1" r:id="rId2"/>
-    <sheet name="Viral Load" sheetId="2" r:id="rId3"/>
-    <sheet name="Preference Assessment" sheetId="3" r:id="rId4"/>
-    <sheet name="Support Option Done" sheetId="6" r:id="rId5"/>
-    <sheet name="ART Refill" sheetId="4" r:id="rId6"/>
+    <sheet name="User Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Participant" sheetId="2" r:id="rId2"/>
+    <sheet name="Medication Refils" sheetId="3" r:id="rId3"/>
+    <sheet name="Events" sheetId="4" r:id="rId4"/>
+    <sheet name="Appointments" sheetId="5" r:id="rId5"/>
+    <sheet name="Followups" sheetId="6" r:id="rId6"/>
+    <sheet name="Analytics" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,48 +29,24 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ART Refill</t>
-  </si>
-  <si>
-    <t>Preference Assessment</t>
-  </si>
-  <si>
-    <t>Viral Load</t>
-  </si>
-  <si>
-    <t>User Data</t>
-  </si>
-  <si>
-    <t>Support Option Done</t>
-  </si>
-  <si>
-    <t>Participant</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -410,110 +387,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14C1D3F-DADE-7948-96C4-CAE9F01E0419}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846D89F7-2CAB-4A51-B2A7-8645EF47D887}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53FC623-0696-4951-A96D-ABA5373D2F69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA07F7C9-78EB-4E35-B3DD-88DCF34C1386}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F39E4D3-A1E0-134D-B622-AE1D67844ECA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AFD532-25CD-4148-BDDB-ED6AB75CCFF4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B32EA6C-2439-4446-BC47-7B3F83C87FCB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CA4CDD-0045-42C1-BE26-1BD9D115160A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D14B88-3B73-C34A-86A7-617B985326A4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CB16AA-CC47-4F71-9355-0918A0A469A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9BE023-1C31-614C-918B-D51772EA5AE2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D1F9F0-AAC6-465F-A5B5-82D4D7675381}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75AC98-0F8C-4BD3-98EC-555BCDB32C71}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/excel/PEBRA_Data_template.xlsx
+++ b/assets/excel/PEBRA_Data_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\FlutterApps\PEBRApp\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E5DF11-8BA7-42D3-ACB7-263C6D2CFB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58BDD15-1489-4213-A3C1-F24D5A61BA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2388" yWindow="2532" windowWidth="17280" windowHeight="7620" firstSheet="2" activeTab="2" xr2:uid="{4FD093C7-90F8-4493-AAE4-96A674E1E67B}"/>
+    <workbookView xWindow="2388" yWindow="2532" windowWidth="17280" windowHeight="7620" firstSheet="2" activeTab="6" xr2:uid="{4FD093C7-90F8-4493-AAE4-96A674E1E67B}"/>
   </bookViews>
   <sheets>
     <sheet name="User Data" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>User Data</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Medication Refils</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Appointments</t>
+  </si>
+  <si>
+    <t>Followups</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,10 +416,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846D89F7-2CAB-4A51-B2A7-8645EF47D887}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -405,7 +439,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -414,10 +454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA07F7C9-78EB-4E35-B3DD-88DCF34C1386}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -429,7 +475,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -441,7 +493,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -453,7 +511,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -462,10 +526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75AC98-0F8C-4BD3-98EC-555BCDB32C71}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>